--- a/7rmartSupermarket/src/main/resources/Testdata.xlsx
+++ b/7rmartSupermarket/src/main/resources/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lismy\eclipse-workspace\7rmartSupermarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lismy\git\7rmartSupermarket\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786CFEF-0DD5-4752-905F-C6621DADB0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73922533-A9D4-4954-A0BC-8ACECCE4EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A161BD5A-991E-4AEC-A275-8CACFD253C65}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>Lismy</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CCEB3D-B093-4E2F-870F-3BB0A23F56B2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +507,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -532,6 +535,14 @@
       </c>
       <c r="B5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
